--- a/Images/Images.xlsx
+++ b/Images/Images.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ランダム" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="44-エッジ" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="cv.Mat" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ランダム" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="44-エッジ" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,13 +21,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">(0, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0,
+cols-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1,
+cols-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(rows-1, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(rows-1, 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(rows-1, cols-1)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -50,6 +85,27 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -114,12 +170,75 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -162,52 +281,92 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -288,25 +447,526 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>419040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>550800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="直線コネクタ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1789200" y="2383200"/>
+          <a:ext cx="0" cy="1270800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>235800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>235800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="直線コネクタ 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219840" y="1178640"/>
+          <a:ext cx="1420920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>534960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105720" y="2383200"/>
+          <a:ext cx="1554120" cy="1254960"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>501840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>86040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>685080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2027520" y="501840"/>
+          <a:ext cx="3029040" cy="183240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>580320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2126160" y="167400"/>
+          <a:ext cx="2937240" cy="412920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Unicode MS"/>
+              <a:ea typeface="Meiryo UI"/>
+            </a:rPr>
+            <a:t>列（横幅）－</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Unicode MS"/>
+              <a:ea typeface="Meiryo UI"/>
+            </a:rPr>
+            <a:t>cols</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Unicode MS"/>
+              <a:ea typeface="Meiryo UI"/>
+            </a:rPr>
+            <a:t>ピクセル</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+            <a:ea typeface="Meiryo UI"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1095840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>427320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1314720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>447480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="114840" y="2350440"/>
+          <a:ext cx="2180520" cy="218880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>644400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>298080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>360000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-619920" y="2504880"/>
+          <a:ext cx="2942280" cy="413280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Unicode MS"/>
+              <a:ea typeface="Meiryo UI"/>
+            </a:rPr>
+            <a:t>行（高さ）－</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Unicode MS"/>
+              <a:ea typeface="Meiryo UI"/>
+            </a:rPr>
+            <a:t>rows</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Unicode MS"/>
+              <a:ea typeface="Meiryo UI"/>
+            </a:rPr>
+            <a:t>ピクセル</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+            <a:ea typeface="Meiryo UI"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>462960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3090600" y="2472120"/>
+          <a:ext cx="1212120" cy="373680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Unicode MS"/>
+              <a:ea typeface="Arial Unicode MS"/>
+            </a:rPr>
+            <a:t>(row, col)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257760" y="1191240"/>
-          <a:ext cx="2538000" cy="271440"/>
+          <a:ext cx="2537640" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -339,7 +999,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -350,19 +1010,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="293040" y="1381680"/>
-          <a:ext cx="2896920" cy="357120"/>
+          <a:ext cx="2896560" cy="356760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -400,436 +1060,550 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B1:G24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="8" style="0" width="5.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AC14" activeCellId="0" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="1" width="3.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="11" width="3.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="D2" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>242</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="G2" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>30</v>
+      </c>
+      <c r="H2" s="13" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>229</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>247</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>252</v>
+      <c r="I2" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>200</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>204</v>
+      </c>
+      <c r="K2" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>18</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="G3" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>215</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>225</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>240</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>252</v>
+      <c r="H3" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>250</v>
+      </c>
+      <c r="I3" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>222</v>
+      </c>
+      <c r="J3" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>224</v>
+      </c>
+      <c r="K3" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="B4" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>27</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>19</v>
+      </c>
+      <c r="F4" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>232</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>205</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>222</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>236</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>234</v>
+      <c r="G4" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>212</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>225</v>
+      </c>
+      <c r="I4" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>246</v>
+      </c>
+      <c r="J4" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>235</v>
+      </c>
+      <c r="K4" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="B5" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>17</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>31</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>226</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>228</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>213</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>242</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>234</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>244</v>
+      <c r="F5" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>212</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>243</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>241</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>217</v>
+      </c>
+      <c r="J5" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>227</v>
+      </c>
+      <c r="K5" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B6" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>24</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>246</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>251</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>248</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>210</v>
-      </c>
-      <c r="J6" s="3" t="n">
+      <c r="F6" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>217</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>254</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>213</v>
+      </c>
+      <c r="I6" s="13" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>250</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>233</v>
+      <c r="J6" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>201</v>
+      </c>
+      <c r="K6" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>250</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="B7" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>25</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>209</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>217</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>239</v>
+      </c>
+      <c r="I7" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>219</v>
+      </c>
+      <c r="J7" s="13" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>213</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>214</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>210</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>240</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>202</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>241</v>
+      <c r="K7" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>219</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="B8" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>31</v>
+      </c>
+      <c r="C8" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>21</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>225</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>206</v>
-      </c>
-      <c r="H8" s="3" t="n">
+      <c r="D8" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>240</v>
+      </c>
+      <c r="G8" s="13" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>202</v>
       </c>
-      <c r="I8" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>242</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>248</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>224</v>
+      <c r="H8" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>220</v>
+      </c>
+      <c r="I8" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>219</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>202</v>
+      </c>
+      <c r="K8" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>201</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>227</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>246</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>207</v>
-      </c>
-      <c r="I9" s="3" t="n">
+      <c r="D9" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>20</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>30</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>215</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>218</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>221</v>
+      </c>
+      <c r="I9" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>201</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>217</v>
+      </c>
+      <c r="K9" s="13" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>233</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>252</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>205</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>245</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>208</v>
-      </c>
-      <c r="H10" s="3" t="n">
+      <c r="C10" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>16</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>241</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>251</v>
+      </c>
+      <c r="G10" s="13" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>240</v>
       </c>
-      <c r="I10" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>215</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>229</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>238</v>
+      <c r="H10" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>222</v>
+      </c>
+      <c r="I10" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>214</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>211</v>
+      </c>
+      <c r="K10" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="B11" s="12" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>229</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>212</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>222</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>210</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>206</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>229</v>
-      </c>
-      <c r="K11" s="3" t="n">
+      <c r="C11" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>21</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>25</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>205</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>213</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>205</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>204</v>
+      </c>
+      <c r="I11" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>246</v>
+      </c>
+      <c r="J11" s="13" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>230</v>
+      </c>
+      <c r="K11" s="13" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -845,7 +1619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -858,1050 +1632,1050 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.12890625" defaultRowHeight="22.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="4" width="4.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="4.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="13" style="4" width="4.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="5" width="4.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="4" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="14" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="15" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="13" style="14" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="15" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="14" width="4.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="17" t="n">
         <v>201</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="17" t="n">
         <v>236</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="17" t="n">
         <v>234</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="K2" s="17" t="n">
         <v>247</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9" t="n">
+      <c r="L2" s="18"/>
+      <c r="M2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19" t="n">
         <f aca="false">C2-B2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="9" t="n">
+      <c r="O2" s="19" t="n">
         <f aca="false">D2-C2</f>
         <v>7</v>
       </c>
-      <c r="P2" s="9" t="n">
+      <c r="P2" s="19" t="n">
         <f aca="false">E2-D2</f>
         <v>-8</v>
       </c>
-      <c r="Q2" s="9" t="n">
+      <c r="Q2" s="19" t="n">
         <f aca="false">F2-E2</f>
         <v>4</v>
       </c>
-      <c r="R2" s="9" t="n">
+      <c r="R2" s="19" t="n">
         <f aca="false">G2-F2</f>
         <v>-7</v>
       </c>
-      <c r="S2" s="10" t="n">
+      <c r="S2" s="20" t="n">
         <f aca="false">H2-G2</f>
         <v>184</v>
       </c>
-      <c r="T2" s="9" t="n">
+      <c r="T2" s="19" t="n">
         <f aca="false">I2-H2</f>
         <v>35</v>
       </c>
-      <c r="U2" s="9" t="n">
+      <c r="U2" s="19" t="n">
         <f aca="false">J2-I2</f>
         <v>-2</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="V2" s="19" t="n">
         <f aca="false">K2-J2</f>
         <v>13</v>
       </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="7" t="n">
+      <c r="W2" s="18"/>
+      <c r="X2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AE2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AE2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="17" t="n">
         <v>235</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="17" t="n">
         <v>253</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="17" t="n">
         <v>209</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="17" t="n">
         <v>225</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9" t="n">
+      <c r="L3" s="18"/>
+      <c r="M3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19" t="n">
         <f aca="false">C3-B3</f>
         <v>8</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="19" t="n">
         <f aca="false">D3-C3</f>
         <v>-4</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="P3" s="19" t="n">
         <f aca="false">E3-D3</f>
         <v>10</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="Q3" s="19" t="n">
         <f aca="false">F3-E3</f>
         <v>-4</v>
       </c>
-      <c r="R3" s="9" t="n">
+      <c r="R3" s="19" t="n">
         <f aca="false">G3-F3</f>
         <v>-6</v>
       </c>
-      <c r="S3" s="10" t="n">
+      <c r="S3" s="20" t="n">
         <f aca="false">H3-G3</f>
         <v>215</v>
       </c>
-      <c r="T3" s="9" t="n">
+      <c r="T3" s="19" t="n">
         <f aca="false">I3-H3</f>
         <v>18</v>
       </c>
-      <c r="U3" s="9" t="n">
+      <c r="U3" s="19" t="n">
         <f aca="false">J3-I3</f>
         <v>-44</v>
       </c>
-      <c r="V3" s="9" t="n">
+      <c r="V3" s="19" t="n">
         <f aca="false">K3-J3</f>
         <v>16</v>
       </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="7" t="n">
+      <c r="W3" s="18"/>
+      <c r="X3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AE3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AE3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="17" t="n">
         <v>238</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="17" t="n">
         <v>225</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="17" t="n">
         <v>244</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="17" t="n">
         <v>249</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="17" t="n">
         <v>242</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9" t="n">
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19" t="n">
         <f aca="false">C4-B4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="19" t="n">
         <f aca="false">D4-C4</f>
         <v>4</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="19" t="n">
         <f aca="false">E4-D4</f>
         <v>-3</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="Q4" s="19" t="n">
         <f aca="false">F4-E4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="10" t="n">
+      <c r="R4" s="20" t="n">
         <f aca="false">G4-F4</f>
         <v>216</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="S4" s="19" t="n">
         <f aca="false">H4-G4</f>
         <v>-13</v>
       </c>
-      <c r="T4" s="9" t="n">
+      <c r="T4" s="19" t="n">
         <f aca="false">I4-H4</f>
         <v>19</v>
       </c>
-      <c r="U4" s="9" t="n">
+      <c r="U4" s="19" t="n">
         <f aca="false">J4-I4</f>
         <v>5</v>
       </c>
-      <c r="V4" s="9" t="n">
+      <c r="V4" s="19" t="n">
         <f aca="false">K4-J4</f>
         <v>-7</v>
       </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7" t="n">
+      <c r="W4" s="18"/>
+      <c r="X4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AD4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AD4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="17" t="n">
         <v>208</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="17" t="n">
         <v>254</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="17" t="n">
         <v>252</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="17" t="n">
         <v>231</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="17" t="n">
         <v>215</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="17" t="n">
         <v>231</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9" t="n">
+      <c r="L5" s="18"/>
+      <c r="M5" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19" t="n">
         <f aca="false">C5-B5</f>
         <v>1</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="19" t="n">
         <f aca="false">D5-C5</f>
         <v>-2</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="P5" s="19" t="n">
         <f aca="false">E5-D5</f>
         <v>5</v>
       </c>
-      <c r="Q5" s="10" t="n">
+      <c r="Q5" s="20" t="n">
         <f aca="false">F5-E5</f>
         <v>178</v>
       </c>
-      <c r="R5" s="9" t="n">
+      <c r="R5" s="19" t="n">
         <f aca="false">G5-F5</f>
         <v>46</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="S5" s="19" t="n">
         <f aca="false">H5-G5</f>
         <v>-2</v>
       </c>
-      <c r="T5" s="9" t="n">
+      <c r="T5" s="19" t="n">
         <f aca="false">I5-H5</f>
         <v>-21</v>
       </c>
-      <c r="U5" s="9" t="n">
+      <c r="U5" s="19" t="n">
         <f aca="false">J5-I5</f>
         <v>-16</v>
       </c>
-      <c r="V5" s="9" t="n">
+      <c r="V5" s="19" t="n">
         <f aca="false">K5-J5</f>
         <v>16</v>
       </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7" t="n">
+      <c r="W5" s="18"/>
+      <c r="X5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AC5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="17" t="n">
         <v>249</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="17" t="n">
         <v>215</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="17" t="n">
         <v>244</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="17" t="n">
         <v>239</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="17" t="n">
         <v>254</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="17" t="n">
         <v>208</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9" t="n">
+      <c r="L6" s="18"/>
+      <c r="M6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19" t="n">
         <f aca="false">C6-B6</f>
         <v>-15</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="19" t="n">
         <f aca="false">D6-C6</f>
         <v>5</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="19" t="n">
         <f aca="false">E6-D6</f>
         <v>8</v>
       </c>
-      <c r="Q6" s="10" t="n">
+      <c r="Q6" s="20" t="n">
         <f aca="false">F6-E6</f>
         <v>220</v>
       </c>
-      <c r="R6" s="9" t="n">
+      <c r="R6" s="19" t="n">
         <f aca="false">G6-F6</f>
         <v>-34</v>
       </c>
-      <c r="S6" s="9" t="n">
+      <c r="S6" s="19" t="n">
         <f aca="false">H6-G6</f>
         <v>29</v>
       </c>
-      <c r="T6" s="9" t="n">
+      <c r="T6" s="19" t="n">
         <f aca="false">I6-H6</f>
         <v>-5</v>
       </c>
-      <c r="U6" s="9" t="n">
+      <c r="U6" s="19" t="n">
         <f aca="false">J6-I6</f>
         <v>15</v>
       </c>
-      <c r="V6" s="9" t="n">
+      <c r="V6" s="19" t="n">
         <f aca="false">K6-J6</f>
         <v>-46</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7" t="n">
+      <c r="W6" s="18"/>
+      <c r="X6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AC6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="17" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="17" t="n">
         <v>216</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="17" t="n">
         <v>207</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="17" t="n">
         <v>253</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="17" t="n">
         <v>211</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="17" t="n">
         <v>218</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9" t="n">
+      <c r="L7" s="18"/>
+      <c r="M7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19" t="n">
         <f aca="false">C7-B7</f>
         <v>4</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="19" t="n">
         <f aca="false">D7-C7</f>
         <v>4</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="P7" s="19" t="n">
         <f aca="false">E7-D7</f>
         <v>-13</v>
       </c>
-      <c r="Q7" s="10" t="n">
+      <c r="Q7" s="20" t="n">
         <f aca="false">F7-E7</f>
         <v>184</v>
       </c>
-      <c r="R7" s="9" t="n">
+      <c r="R7" s="19" t="n">
         <f aca="false">G7-F7</f>
         <v>16</v>
       </c>
-      <c r="S7" s="9" t="n">
+      <c r="S7" s="19" t="n">
         <f aca="false">H7-G7</f>
         <v>-9</v>
       </c>
-      <c r="T7" s="9" t="n">
+      <c r="T7" s="19" t="n">
         <f aca="false">I7-H7</f>
         <v>46</v>
       </c>
-      <c r="U7" s="9" t="n">
+      <c r="U7" s="19" t="n">
         <f aca="false">J7-I7</f>
         <v>-42</v>
       </c>
-      <c r="V7" s="9" t="n">
+      <c r="V7" s="19" t="n">
         <f aca="false">K7-J7</f>
         <v>7</v>
       </c>
-      <c r="W7" s="8"/>
-      <c r="X7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7" t="n">
+      <c r="W7" s="18"/>
+      <c r="X7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AC7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="17" t="n">
         <v>242</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="17" t="n">
         <v>213</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="17" t="n">
         <v>200</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="17" t="n">
         <v>201</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="17" t="n">
         <v>215</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="17" t="n">
         <v>240</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9" t="n">
+      <c r="L8" s="18"/>
+      <c r="M8" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19" t="n">
         <f aca="false">C8-B8</f>
         <v>-9</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="19" t="n">
         <f aca="false">D8-C8</f>
         <v>3</v>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="P8" s="19" t="n">
         <f aca="false">E8-D8</f>
         <v>5</v>
       </c>
-      <c r="Q8" s="10" t="n">
+      <c r="Q8" s="20" t="n">
         <f aca="false">F8-E8</f>
         <v>213</v>
       </c>
-      <c r="R8" s="9" t="n">
+      <c r="R8" s="19" t="n">
         <f aca="false">G8-F8</f>
         <v>-29</v>
       </c>
-      <c r="S8" s="9" t="n">
+      <c r="S8" s="19" t="n">
         <f aca="false">H8-G8</f>
         <v>-13</v>
       </c>
-      <c r="T8" s="9" t="n">
+      <c r="T8" s="19" t="n">
         <f aca="false">I8-H8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="9" t="n">
+      <c r="U8" s="19" t="n">
         <f aca="false">J8-I8</f>
         <v>14</v>
       </c>
-      <c r="V8" s="9" t="n">
+      <c r="V8" s="19" t="n">
         <f aca="false">K8-J8</f>
         <v>25</v>
       </c>
-      <c r="W8" s="8"/>
-      <c r="X8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7" t="n">
+      <c r="W8" s="18"/>
+      <c r="X8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="11" t="n">
+      <c r="AC8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="17" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="17" t="n">
         <v>248</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="17" t="n">
         <v>200</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="17" t="n">
         <v>207</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="17" t="n">
         <v>249</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="17" t="n">
         <v>212</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9" t="n">
+      <c r="L9" s="18"/>
+      <c r="M9" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19" t="n">
         <f aca="false">C9-B9</f>
         <v>-1</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="19" t="n">
         <f aca="false">D9-C9</f>
         <v>1</v>
       </c>
-      <c r="P9" s="9" t="n">
+      <c r="P9" s="19" t="n">
         <f aca="false">E9-D9</f>
         <v>7</v>
       </c>
-      <c r="Q9" s="10" t="n">
+      <c r="Q9" s="20" t="n">
         <f aca="false">F9-E9</f>
         <v>176</v>
       </c>
-      <c r="R9" s="9" t="n">
+      <c r="R9" s="19" t="n">
         <f aca="false">G9-F9</f>
         <v>48</v>
       </c>
-      <c r="S9" s="9" t="n">
+      <c r="S9" s="19" t="n">
         <f aca="false">H9-G9</f>
         <v>-48</v>
       </c>
-      <c r="T9" s="9" t="n">
+      <c r="T9" s="19" t="n">
         <f aca="false">I9-H9</f>
         <v>7</v>
       </c>
-      <c r="U9" s="9" t="n">
+      <c r="U9" s="19" t="n">
         <f aca="false">J9-I9</f>
         <v>42</v>
       </c>
-      <c r="V9" s="9" t="n">
+      <c r="V9" s="19" t="n">
         <f aca="false">K9-J9</f>
         <v>-37</v>
       </c>
-      <c r="W9" s="8"/>
-      <c r="X9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7" t="n">
+      <c r="W9" s="18"/>
+      <c r="X9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AC9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="17" t="n">
         <v>251</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="17" t="n">
         <v>251</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="17" t="n">
         <v>244</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="17" t="n">
         <v>245</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="17" t="n">
         <v>225</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="17" t="n">
         <v>208</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="17" t="n">
         <v>226</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9" t="n">
+      <c r="L10" s="18"/>
+      <c r="M10" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19" t="n">
         <f aca="false">C10-B10</f>
         <v>-10</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="19" t="n">
         <f aca="false">D10-C10</f>
         <v>7</v>
       </c>
-      <c r="P10" s="10" t="n">
+      <c r="P10" s="20" t="n">
         <f aca="false">E10-D10</f>
         <v>227</v>
       </c>
-      <c r="Q10" s="9" t="n">
+      <c r="Q10" s="19" t="n">
         <f aca="false">F10-E10</f>
         <v>0</v>
       </c>
-      <c r="R10" s="9" t="n">
+      <c r="R10" s="19" t="n">
         <f aca="false">G10-F10</f>
         <v>-7</v>
       </c>
-      <c r="S10" s="9" t="n">
+      <c r="S10" s="19" t="n">
         <f aca="false">H10-G10</f>
         <v>1</v>
       </c>
-      <c r="T10" s="9" t="n">
+      <c r="T10" s="19" t="n">
         <f aca="false">I10-H10</f>
         <v>-20</v>
       </c>
-      <c r="U10" s="9" t="n">
+      <c r="U10" s="19" t="n">
         <f aca="false">J10-I10</f>
         <v>-17</v>
       </c>
-      <c r="V10" s="9" t="n">
+      <c r="V10" s="19" t="n">
         <f aca="false">K10-J10</f>
         <v>18</v>
       </c>
-      <c r="W10" s="8"/>
-      <c r="X10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7" t="n">
+      <c r="W10" s="18"/>
+      <c r="X10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AB10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="11" t="n">
+      <c r="AB10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="17" t="n">
         <v>236</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="17" t="n">
         <v>233</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="17" t="n">
         <v>250</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="17" t="n">
         <v>219</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="17" t="n">
         <v>222</v>
       </c>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="17" t="n">
         <v>206</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="K11" s="17" t="n">
         <v>229</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9" t="n">
+      <c r="L11" s="18"/>
+      <c r="M11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19" t="n">
         <f aca="false">C11-B11</f>
         <v>1</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="19" t="n">
         <f aca="false">D11-C11</f>
         <v>-14</v>
       </c>
-      <c r="P11" s="10" t="n">
+      <c r="P11" s="20" t="n">
         <f aca="false">E11-D11</f>
         <v>219</v>
       </c>
-      <c r="Q11" s="9" t="n">
+      <c r="Q11" s="19" t="n">
         <f aca="false">F11-E11</f>
         <v>-3</v>
       </c>
-      <c r="R11" s="9" t="n">
+      <c r="R11" s="19" t="n">
         <f aca="false">G11-F11</f>
         <v>17</v>
       </c>
-      <c r="S11" s="9" t="n">
+      <c r="S11" s="19" t="n">
         <f aca="false">H11-G11</f>
         <v>-31</v>
       </c>
-      <c r="T11" s="9" t="n">
+      <c r="T11" s="19" t="n">
         <f aca="false">I11-H11</f>
         <v>3</v>
       </c>
-      <c r="U11" s="9" t="n">
+      <c r="U11" s="19" t="n">
         <f aca="false">J11-I11</f>
         <v>-16</v>
       </c>
-      <c r="V11" s="9" t="n">
+      <c r="V11" s="19" t="n">
         <f aca="false">K11-J11</f>
         <v>23</v>
       </c>
-      <c r="W11" s="8"/>
-      <c r="X11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="7" t="n">
+      <c r="W11" s="18"/>
+      <c r="X11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="17" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AB11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="11" t="n">
+      <c r="AB11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Images/Images.xlsx
+++ b/Images/Images.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cv.Mat" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ランダム" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="44-エッジ" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Gaussian" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ランダム" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="44-エッジ" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -57,11 +58,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.000_ "/>
+    <numFmt numFmtId="166" formatCode="0.0_ "/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,15 +102,20 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="1"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -144,7 +153,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +162,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFB3B3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -166,7 +181,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <bgColor rgb="FF111111"/>
       </patternFill>
     </fill>
   </fills>
@@ -281,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,7 +317,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,6 +326,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,27 +345,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,19 +377,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,9 +422,9 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -428,10 +455,10 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF111111"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -440,6 +467,1420 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gaussian!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gaussian!$A$3:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2.000 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.900 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.800 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.700 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.600 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.500 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.400 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.300 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.200 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.100 </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.000 </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.900 </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.800 </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.700 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.600 </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.500 </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.400 </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.300 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.200 </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.100 </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000 </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.100 </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.200 </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.300 </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.400 </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.500 </c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.600 </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.700 </c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.800 </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.900 </c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.000 </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.100 </c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.200 </c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.300 </c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.400 </c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.500 </c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.600 </c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.700 </c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.800 </c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.900 </c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.000 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gaussian!$B$3:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.000267660451529771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000583893851582921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00122380386022754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00246443833694604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00476817640292968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00886369682387602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0158309031659599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0271659384673712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0447890605896858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0709491856924628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.107981933026376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.157900316601788</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.221841669358911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29945493127149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.388372109966426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.483941449038287</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.579383105522965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.666449205783599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.736540280606647</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.782085387950912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.797884560802865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.782085387950912</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.736540280606647</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.666449205783599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.579383105522965</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.483941449038287</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.388372109966426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.29945493127149</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.221841669358911</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.157900316601788</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.107981933026376</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0709491856924628</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0447890605896858</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0271659384673712</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0158309031659599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00886369682387602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00476817640292968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00246443833694604</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00122380386022754</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000583893851582921</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000267660451529771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gaussian!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="808080"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:custDash>
+                <a:ds d="197000" sp="127000"/>
+              </a:custDash>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gaussian!$A$3:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2.000 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.900 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.800 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.700 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.600 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.500 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.400 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.300 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.200 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.100 </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.000 </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.900 </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.800 </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.700 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.600 </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.500 </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.400 </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.300 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.200 </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.100 </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000 </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.100 </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.200 </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.300 </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.400 </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.500 </c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.600 </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.700 </c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.800 </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.900 </c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.000 </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.100 </c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.200 </c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.300 </c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.400 </c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.500 </c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.600 </c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.700 </c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.800 </c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.900 </c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.000 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gaussian!$C$3:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.0539909665131881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0656158147746766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0789501583008942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0940490773768869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.110920834679456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.129517595665892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.149727465635745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.171368592047807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.194186054983213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21785217703255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.241970724519143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.266085249898755</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.289691552761483</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.312253933366761</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3332246028918</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3520653267643</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.368270140303323</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.381387815460524</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.391042693975456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.396952547477012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.398942280401433</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.396952547477012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.391042693975456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.381387815460524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.368270140303323</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3520653267643</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3332246028918</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.312253933366761</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.289691552761483</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.266085249898755</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.241970724519143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21785217703255</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.194186054983213</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.171368592047807</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.149727465635745</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.129517595665892</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.110920834679456</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0940490773768869</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0789501583008942</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0656158147746766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0539909665131881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gaussian!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="111111"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="111111"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gaussian!$A$3:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2.000 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.900 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.800 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.700 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.600 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.500 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.400 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.300 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.200 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.100 </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.000 </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.900 </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.800 </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.700 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.600 </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.500 </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.400 </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.300 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.200 </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.100 </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000 </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.100 </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.200 </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.300 </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.400 </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.500 </c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.600 </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.700 </c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.800 </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.900 </c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.000 </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.100 </c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.200 </c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.300 </c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.400 </c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.500 </c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.600 </c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.700 </c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.800 </c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.900 </c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.000 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gaussian!$D$3:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.109340049783996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.119238944329694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129457369988809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.139928197416483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.150575218311416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.161313816346096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.172051883935492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.182690978264686</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.193127701840989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.203255284640345</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.212965337014901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2221497352612</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.230702595451282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.238522286111979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.245513426868882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.251588818461995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.256671249730676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.260695129316971</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.263607893923878</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.265371150875968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.265961520267622</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.265371150875968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.263607893923878</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.260695129316971</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.256671249730676</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.251588818461995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.245513426868882</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.238522286111979</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.230702595451282</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2221497352612</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.212965337014901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.203255284640345</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.193127701840989</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.182690978264686</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.172051883935492</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.161313816346096</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.150575218311416</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.139928197416483</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.129457369988809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.119238944329694</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.109340049783996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gaussian!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="b2b2b2"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="b2b2b2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDashDotDot"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gaussian!$A$3:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2.000 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.900 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.800 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.700 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.600 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.500 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.400 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.300 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.200 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.100 </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.000 </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.900 </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.800 </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.700 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.600 </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.500 </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.400 </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.300 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.200 </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.100 </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000 </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.100 </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.200 </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.300 </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.400 </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.500 </c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.600 </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.700 </c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.800 </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.900 </c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.000 </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.100 </c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.200 </c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.300 </c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.400 </c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.500 </c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.600 </c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.700 </c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.800 </c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.900 </c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.000 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gaussian!$E$3:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.120985362259572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.127029528234595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.133042624949377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.138992443065498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144845776380741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.150568716077402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.156126966683381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.161486179833957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1666123014459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.171471927509692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17603266338215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.180263481230824</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.184135070151662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.187620173458469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.190693907730262</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.193334058401425</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.195521346987728</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.197239665453944</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.198476273738506</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.199221957047382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.199471140200716</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.199221957047382</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.198476273738506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.197239665453944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.195521346987728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.193334058401425</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.190693907730262</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.187620173458469</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.184135070151662</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.180263481230824</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17603266338215</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.171471927509692</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1666123014459</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.161486179833957</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.156126966683381</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.150568716077402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.144845776380741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.138992443065498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.133042624949377</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.127029528234595</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.120985362259572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="78197928"/>
+        <c:axId val="85605943"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78197928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+                <a:latin typeface="Meiryo UI"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85605943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85605943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+                <a:latin typeface="Meiryo UI"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78197928"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,9 +2041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>685080</xdr:rowOff>
+      <xdr:rowOff>684000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -612,7 +2053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2027520" y="501840"/>
-          <a:ext cx="3029040" cy="183240"/>
+          <a:ext cx="3027960" cy="182160"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -621,11 +2062,9 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -655,7 +2094,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>580320</xdr:rowOff>
     </xdr:to>
@@ -667,7 +2106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2126160" y="167400"/>
-          <a:ext cx="2937240" cy="412920"/>
+          <a:ext cx="2936160" cy="412920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,7 +2164,6 @@
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="Meiryo UI"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -735,15 +2173,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1095840</xdr:colOff>
+      <xdr:colOff>1097640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>427320</xdr:rowOff>
+      <xdr:rowOff>427680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1314720</xdr:colOff>
+      <xdr:colOff>1315440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>447480</xdr:rowOff>
+      <xdr:rowOff>446760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -752,8 +2190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="114840" y="2350440"/>
-          <a:ext cx="2180520" cy="218880"/>
+          <a:off x="116280" y="2351160"/>
+          <a:ext cx="2179440" cy="217800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -762,11 +2200,9 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -790,15 +2226,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>644400</xdr:colOff>
+      <xdr:colOff>645480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>298080</xdr:rowOff>
+      <xdr:rowOff>299160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1057680</xdr:colOff>
+      <xdr:colOff>1058040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>360000</xdr:rowOff>
+      <xdr:rowOff>361080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -807,8 +2243,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-619920" y="2504880"/>
-          <a:ext cx="2942280" cy="413280"/>
+          <a:off x="-619200" y="2506320"/>
+          <a:ext cx="2942280" cy="412560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,7 +2302,6 @@
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="2000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="Meiryo UI"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -882,7 +2317,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>462960</xdr:rowOff>
     </xdr:to>
@@ -894,13 +2329,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3090600" y="2472120"/>
-          <a:ext cx="1212120" cy="373680"/>
+          <a:ext cx="1211040" cy="373680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -945,6 +2380,41 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>222120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4222800" y="984960"/>
+        <a:ext cx="6869160" cy="3213000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -954,19 +2424,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257760" y="1191240"/>
-          <a:ext cx="2537640" cy="271080"/>
+          <a:ext cx="2536560" cy="270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -999,7 +2469,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -1010,19 +2480,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>17640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="293040" y="1381680"/>
-          <a:ext cx="2896560" cy="356760"/>
+          <a:ext cx="2895480" cy="355680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,8 +2532,8 @@
   </sheetPr>
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,7 +2573,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1111,7 +2581,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1119,7 +2589,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1127,16 +2597,16 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1174,436 +2644,1347 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X11" activeCellId="0" sqref="X11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="11.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="12" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="12" t="n">
+        <f aca="false">1/SQRT(2*PI())</f>
+        <v>0.398942280401433</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A3^2)/(2*B$2^2))</f>
+        <v>0.000267660451529771</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A3^2)/(2*C$2^2))</f>
+        <v>0.0539909665131881</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A3^2)/(2*D$2^2))</f>
+        <v>0.109340049783996</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A3^2)/(2*E$2^2))</f>
+        <v>0.120985362259572</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A4^2)/(2*B$2^2))</f>
+        <v>0.000583893851582921</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A4^2)/(2*C$2^2))</f>
+        <v>0.0656158147746766</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A4^2)/(2*D$2^2))</f>
+        <v>0.119238944329694</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A4^2)/(2*E$2^2))</f>
+        <v>0.127029528234595</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A5^2)/(2*B$2^2))</f>
+        <v>0.00122380386022754</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A5^2)/(2*C$2^2))</f>
+        <v>0.0789501583008942</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A5^2)/(2*D$2^2))</f>
+        <v>0.129457369988809</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A5^2)/(2*E$2^2))</f>
+        <v>0.133042624949377</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A6^2)/(2*B$2^2))</f>
+        <v>0.00246443833694604</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A6^2)/(2*C$2^2))</f>
+        <v>0.0940490773768869</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A6^2)/(2*D$2^2))</f>
+        <v>0.139928197416483</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A6^2)/(2*E$2^2))</f>
+        <v>0.138992443065498</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A7^2)/(2*B$2^2))</f>
+        <v>0.00476817640292968</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A7^2)/(2*C$2^2))</f>
+        <v>0.110920834679456</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A7^2)/(2*D$2^2))</f>
+        <v>0.150575218311416</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A7^2)/(2*E$2^2))</f>
+        <v>0.144845776380741</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A8^2)/(2*B$2^2))</f>
+        <v>0.00886369682387602</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A8^2)/(2*C$2^2))</f>
+        <v>0.129517595665892</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A8^2)/(2*D$2^2))</f>
+        <v>0.161313816346096</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A8^2)/(2*E$2^2))</f>
+        <v>0.150568716077402</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A9^2)/(2*B$2^2))</f>
+        <v>0.0158309031659599</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A9^2)/(2*C$2^2))</f>
+        <v>0.149727465635745</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A9^2)/(2*D$2^2))</f>
+        <v>0.172051883935492</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A9^2)/(2*E$2^2))</f>
+        <v>0.156126966683381</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="B10" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A10^2)/(2*B$2^2))</f>
+        <v>0.0271659384673712</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A10^2)/(2*C$2^2))</f>
+        <v>0.171368592047807</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A10^2)/(2*D$2^2))</f>
+        <v>0.182690978264686</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A10^2)/(2*E$2^2))</f>
+        <v>0.161486179833957</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A11^2)/(2*B$2^2))</f>
+        <v>0.0447890605896858</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A11^2)/(2*C$2^2))</f>
+        <v>0.194186054983213</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A11^2)/(2*D$2^2))</f>
+        <v>0.193127701840989</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A11^2)/(2*E$2^2))</f>
+        <v>0.1666123014459</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="B12" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A12^2)/(2*B$2^2))</f>
+        <v>0.0709491856924628</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A12^2)/(2*C$2^2))</f>
+        <v>0.21785217703255</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A12^2)/(2*D$2^2))</f>
+        <v>0.203255284640345</v>
+      </c>
+      <c r="E12" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A12^2)/(2*E$2^2))</f>
+        <v>0.171471927509692</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A13^2)/(2*B$2^2))</f>
+        <v>0.107981933026376</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A13^2)/(2*C$2^2))</f>
+        <v>0.241970724519143</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A13^2)/(2*D$2^2))</f>
+        <v>0.212965337014901</v>
+      </c>
+      <c r="E13" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A13^2)/(2*E$2^2))</f>
+        <v>0.17603266338215</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="B14" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A14^2)/(2*B$2^2))</f>
+        <v>0.157900316601788</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A14^2)/(2*C$2^2))</f>
+        <v>0.266085249898755</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A14^2)/(2*D$2^2))</f>
+        <v>0.2221497352612</v>
+      </c>
+      <c r="E14" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A14^2)/(2*E$2^2))</f>
+        <v>0.180263481230824</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="B15" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A15^2)/(2*B$2^2))</f>
+        <v>0.221841669358911</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A15^2)/(2*C$2^2))</f>
+        <v>0.289691552761483</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A15^2)/(2*D$2^2))</f>
+        <v>0.230702595451282</v>
+      </c>
+      <c r="E15" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A15^2)/(2*E$2^2))</f>
+        <v>0.184135070151662</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A16^2)/(2*B$2^2))</f>
+        <v>0.29945493127149</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A16^2)/(2*C$2^2))</f>
+        <v>0.312253933366761</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A16^2)/(2*D$2^2))</f>
+        <v>0.238522286111979</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A16^2)/(2*E$2^2))</f>
+        <v>0.187620173458469</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="B17" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A17^2)/(2*B$2^2))</f>
+        <v>0.388372109966426</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A17^2)/(2*C$2^2))</f>
+        <v>0.3332246028918</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A17^2)/(2*D$2^2))</f>
+        <v>0.245513426868882</v>
+      </c>
+      <c r="E17" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A17^2)/(2*E$2^2))</f>
+        <v>0.190693907730262</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B18" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A18^2)/(2*B$2^2))</f>
+        <v>0.483941449038287</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A18^2)/(2*C$2^2))</f>
+        <v>0.3520653267643</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A18^2)/(2*D$2^2))</f>
+        <v>0.251588818461995</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A18^2)/(2*E$2^2))</f>
+        <v>0.193334058401425</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="B19" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A19^2)/(2*B$2^2))</f>
+        <v>0.579383105522965</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A19^2)/(2*C$2^2))</f>
+        <v>0.368270140303323</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A19^2)/(2*D$2^2))</f>
+        <v>0.256671249730676</v>
+      </c>
+      <c r="E19" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A19^2)/(2*E$2^2))</f>
+        <v>0.195521346987728</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="B20" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A20^2)/(2*B$2^2))</f>
+        <v>0.666449205783599</v>
+      </c>
+      <c r="C20" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A20^2)/(2*C$2^2))</f>
+        <v>0.381387815460524</v>
+      </c>
+      <c r="D20" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A20^2)/(2*D$2^2))</f>
+        <v>0.260695129316971</v>
+      </c>
+      <c r="E20" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A20^2)/(2*E$2^2))</f>
+        <v>0.197239665453944</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="B21" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A21^2)/(2*B$2^2))</f>
+        <v>0.736540280606647</v>
+      </c>
+      <c r="C21" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A21^2)/(2*C$2^2))</f>
+        <v>0.391042693975456</v>
+      </c>
+      <c r="D21" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A21^2)/(2*D$2^2))</f>
+        <v>0.263607893923878</v>
+      </c>
+      <c r="E21" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A21^2)/(2*E$2^2))</f>
+        <v>0.198476273738506</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="B22" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A22^2)/(2*B$2^2))</f>
+        <v>0.782085387950912</v>
+      </c>
+      <c r="C22" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A22^2)/(2*C$2^2))</f>
+        <v>0.396952547477012</v>
+      </c>
+      <c r="D22" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A22^2)/(2*D$2^2))</f>
+        <v>0.265371150875968</v>
+      </c>
+      <c r="E22" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A22^2)/(2*E$2^2))</f>
+        <v>0.199221957047382</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A23^2)/(2*B$2^2))</f>
+        <v>0.797884560802865</v>
+      </c>
+      <c r="C23" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A23^2)/(2*C$2^2))</f>
+        <v>0.398942280401433</v>
+      </c>
+      <c r="D23" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A23^2)/(2*D$2^2))</f>
+        <v>0.265961520267622</v>
+      </c>
+      <c r="E23" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A23^2)/(2*E$2^2))</f>
+        <v>0.199471140200716</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B24" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A24^2)/(2*B$2^2))</f>
+        <v>0.782085387950912</v>
+      </c>
+      <c r="C24" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A24^2)/(2*C$2^2))</f>
+        <v>0.396952547477012</v>
+      </c>
+      <c r="D24" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A24^2)/(2*D$2^2))</f>
+        <v>0.265371150875968</v>
+      </c>
+      <c r="E24" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A24^2)/(2*E$2^2))</f>
+        <v>0.199221957047382</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B25" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A25^2)/(2*B$2^2))</f>
+        <v>0.736540280606647</v>
+      </c>
+      <c r="C25" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A25^2)/(2*C$2^2))</f>
+        <v>0.391042693975456</v>
+      </c>
+      <c r="D25" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A25^2)/(2*D$2^2))</f>
+        <v>0.263607893923878</v>
+      </c>
+      <c r="E25" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A25^2)/(2*E$2^2))</f>
+        <v>0.198476273738506</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B26" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A26^2)/(2*B$2^2))</f>
+        <v>0.666449205783599</v>
+      </c>
+      <c r="C26" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A26^2)/(2*C$2^2))</f>
+        <v>0.381387815460524</v>
+      </c>
+      <c r="D26" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A26^2)/(2*D$2^2))</f>
+        <v>0.260695129316971</v>
+      </c>
+      <c r="E26" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A26^2)/(2*E$2^2))</f>
+        <v>0.197239665453944</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B27" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A27^2)/(2*B$2^2))</f>
+        <v>0.579383105522965</v>
+      </c>
+      <c r="C27" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A27^2)/(2*C$2^2))</f>
+        <v>0.368270140303323</v>
+      </c>
+      <c r="D27" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A27^2)/(2*D$2^2))</f>
+        <v>0.256671249730676</v>
+      </c>
+      <c r="E27" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A27^2)/(2*E$2^2))</f>
+        <v>0.195521346987728</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A28^2)/(2*B$2^2))</f>
+        <v>0.483941449038287</v>
+      </c>
+      <c r="C28" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A28^2)/(2*C$2^2))</f>
+        <v>0.3520653267643</v>
+      </c>
+      <c r="D28" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A28^2)/(2*D$2^2))</f>
+        <v>0.251588818461995</v>
+      </c>
+      <c r="E28" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A28^2)/(2*E$2^2))</f>
+        <v>0.193334058401425</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B29" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A29^2)/(2*B$2^2))</f>
+        <v>0.388372109966426</v>
+      </c>
+      <c r="C29" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A29^2)/(2*C$2^2))</f>
+        <v>0.3332246028918</v>
+      </c>
+      <c r="D29" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A29^2)/(2*D$2^2))</f>
+        <v>0.245513426868882</v>
+      </c>
+      <c r="E29" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A29^2)/(2*E$2^2))</f>
+        <v>0.190693907730262</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B30" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A30^2)/(2*B$2^2))</f>
+        <v>0.29945493127149</v>
+      </c>
+      <c r="C30" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A30^2)/(2*C$2^2))</f>
+        <v>0.312253933366761</v>
+      </c>
+      <c r="D30" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A30^2)/(2*D$2^2))</f>
+        <v>0.238522286111979</v>
+      </c>
+      <c r="E30" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A30^2)/(2*E$2^2))</f>
+        <v>0.187620173458469</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B31" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A31^2)/(2*B$2^2))</f>
+        <v>0.221841669358911</v>
+      </c>
+      <c r="C31" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A31^2)/(2*C$2^2))</f>
+        <v>0.289691552761483</v>
+      </c>
+      <c r="D31" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A31^2)/(2*D$2^2))</f>
+        <v>0.230702595451282</v>
+      </c>
+      <c r="E31" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A31^2)/(2*E$2^2))</f>
+        <v>0.184135070151662</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B32" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A32^2)/(2*B$2^2))</f>
+        <v>0.157900316601788</v>
+      </c>
+      <c r="C32" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A32^2)/(2*C$2^2))</f>
+        <v>0.266085249898755</v>
+      </c>
+      <c r="D32" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A32^2)/(2*D$2^2))</f>
+        <v>0.2221497352612</v>
+      </c>
+      <c r="E32" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A32^2)/(2*E$2^2))</f>
+        <v>0.180263481230824</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A33^2)/(2*B$2^2))</f>
+        <v>0.107981933026376</v>
+      </c>
+      <c r="C33" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A33^2)/(2*C$2^2))</f>
+        <v>0.241970724519143</v>
+      </c>
+      <c r="D33" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A33^2)/(2*D$2^2))</f>
+        <v>0.212965337014901</v>
+      </c>
+      <c r="E33" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A33^2)/(2*E$2^2))</f>
+        <v>0.17603266338215</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B34" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A34^2)/(2*B$2^2))</f>
+        <v>0.0709491856924628</v>
+      </c>
+      <c r="C34" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A34^2)/(2*C$2^2))</f>
+        <v>0.21785217703255</v>
+      </c>
+      <c r="D34" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A34^2)/(2*D$2^2))</f>
+        <v>0.203255284640345</v>
+      </c>
+      <c r="E34" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A34^2)/(2*E$2^2))</f>
+        <v>0.171471927509692</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B35" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A35^2)/(2*B$2^2))</f>
+        <v>0.0447890605896858</v>
+      </c>
+      <c r="C35" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A35^2)/(2*C$2^2))</f>
+        <v>0.194186054983213</v>
+      </c>
+      <c r="D35" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A35^2)/(2*D$2^2))</f>
+        <v>0.193127701840989</v>
+      </c>
+      <c r="E35" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A35^2)/(2*E$2^2))</f>
+        <v>0.1666123014459</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B36" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A36^2)/(2*B$2^2))</f>
+        <v>0.0271659384673712</v>
+      </c>
+      <c r="C36" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A36^2)/(2*C$2^2))</f>
+        <v>0.171368592047807</v>
+      </c>
+      <c r="D36" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A36^2)/(2*D$2^2))</f>
+        <v>0.182690978264686</v>
+      </c>
+      <c r="E36" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A36^2)/(2*E$2^2))</f>
+        <v>0.161486179833957</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B37" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A37^2)/(2*B$2^2))</f>
+        <v>0.0158309031659599</v>
+      </c>
+      <c r="C37" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A37^2)/(2*C$2^2))</f>
+        <v>0.149727465635745</v>
+      </c>
+      <c r="D37" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A37^2)/(2*D$2^2))</f>
+        <v>0.172051883935492</v>
+      </c>
+      <c r="E37" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A37^2)/(2*E$2^2))</f>
+        <v>0.156126966683381</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B38" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A38^2)/(2*B$2^2))</f>
+        <v>0.00886369682387602</v>
+      </c>
+      <c r="C38" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A38^2)/(2*C$2^2))</f>
+        <v>0.129517595665892</v>
+      </c>
+      <c r="D38" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A38^2)/(2*D$2^2))</f>
+        <v>0.161313816346096</v>
+      </c>
+      <c r="E38" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A38^2)/(2*E$2^2))</f>
+        <v>0.150568716077402</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B39" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A39^2)/(2*B$2^2))</f>
+        <v>0.00476817640292968</v>
+      </c>
+      <c r="C39" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A39^2)/(2*C$2^2))</f>
+        <v>0.110920834679456</v>
+      </c>
+      <c r="D39" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A39^2)/(2*D$2^2))</f>
+        <v>0.150575218311416</v>
+      </c>
+      <c r="E39" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A39^2)/(2*E$2^2))</f>
+        <v>0.144845776380741</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B40" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A40^2)/(2*B$2^2))</f>
+        <v>0.00246443833694604</v>
+      </c>
+      <c r="C40" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A40^2)/(2*C$2^2))</f>
+        <v>0.0940490773768869</v>
+      </c>
+      <c r="D40" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A40^2)/(2*D$2^2))</f>
+        <v>0.139928197416483</v>
+      </c>
+      <c r="E40" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A40^2)/(2*E$2^2))</f>
+        <v>0.138992443065498</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B41" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A41^2)/(2*B$2^2))</f>
+        <v>0.00122380386022754</v>
+      </c>
+      <c r="C41" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A41^2)/(2*C$2^2))</f>
+        <v>0.0789501583008942</v>
+      </c>
+      <c r="D41" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A41^2)/(2*D$2^2))</f>
+        <v>0.129457369988809</v>
+      </c>
+      <c r="E41" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A41^2)/(2*E$2^2))</f>
+        <v>0.133042624949377</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="B42" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A42^2)/(2*B$2^2))</f>
+        <v>0.000583893851582921</v>
+      </c>
+      <c r="C42" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A42^2)/(2*C$2^2))</f>
+        <v>0.0656158147746766</v>
+      </c>
+      <c r="D42" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A42^2)/(2*D$2^2))</f>
+        <v>0.119238944329694</v>
+      </c>
+      <c r="E42" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A42^2)/(2*E$2^2))</f>
+        <v>0.127029528234595</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" s="12" t="n">
+        <f aca="false">$B$1/B$2*EXP(-($A43^2)/(2*B$2^2))</f>
+        <v>0.000267660451529771</v>
+      </c>
+      <c r="C43" s="12" t="n">
+        <f aca="false">$B$1/C$2*EXP(-($A43^2)/(2*C$2^2))</f>
+        <v>0.0539909665131881</v>
+      </c>
+      <c r="D43" s="12" t="n">
+        <f aca="false">$B$1/D$2*EXP(-($A43^2)/(2*D$2^2))</f>
+        <v>0.109340049783996</v>
+      </c>
+      <c r="E43" s="12" t="n">
+        <f aca="false">$B$1/E$2*EXP(-($A43^2)/(2*E$2^2))</f>
+        <v>0.120985362259572</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC14" activeCellId="0" sqref="AC14"/>
+      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="11" width="3.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="14" width="3.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>16</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>21</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>19</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>21</v>
+      </c>
+      <c r="F2" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>22</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>31</v>
+      </c>
+      <c r="H2" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>247</v>
+      </c>
+      <c r="I2" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>226</v>
+      </c>
+      <c r="J2" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>214</v>
+      </c>
+      <c r="K2" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>16</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>28</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>23</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>27</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>20</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>238</v>
+      </c>
+      <c r="I3" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>206</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>250</v>
+      </c>
+      <c r="K3" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>26</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>31</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>19</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>24</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>27</v>
+      </c>
+      <c r="G4" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>205</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>253</v>
+      </c>
+      <c r="I4" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>248</v>
+      </c>
+      <c r="J4" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>213</v>
+      </c>
+      <c r="K4" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>30</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>30</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>16</v>
+      </c>
+      <c r="F5" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>250</v>
+      </c>
+      <c r="G5" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>236</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>235</v>
+      </c>
+      <c r="I5" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>248</v>
+      </c>
+      <c r="J5" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>213</v>
+      </c>
+      <c r="K5" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>31</v>
+      </c>
+      <c r="C6" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>31</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>31</v>
+      </c>
+      <c r="E6" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="F6" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>207</v>
+      </c>
+      <c r="G6" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>227</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>241</v>
+      </c>
+      <c r="I6" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>231</v>
+      </c>
+      <c r="J6" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>227</v>
+      </c>
+      <c r="K6" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>27</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>18</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>24</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>251</v>
+      </c>
+      <c r="G7" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>227</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>251</v>
+      </c>
+      <c r="I7" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>243</v>
+      </c>
+      <c r="J7" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>227</v>
+      </c>
+      <c r="K7" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>16</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>28</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>17</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>16</v>
+      </c>
+      <c r="F8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>220</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>227</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>252</v>
+      </c>
+      <c r="I8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>210</v>
+      </c>
+      <c r="J8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>207</v>
+      </c>
+      <c r="K8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>28</v>
+      </c>
+      <c r="C9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
-      </c>
-      <c r="F2" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>235</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>247</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>204</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>250</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>211</v>
+      </c>
+      <c r="K9" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
-      </c>
-      <c r="G2" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
-      </c>
-      <c r="H2" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>229</v>
-      </c>
-      <c r="I2" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>200</v>
-      </c>
-      <c r="J2" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>20</v>
+      </c>
+      <c r="E10" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>204</v>
       </c>
-      <c r="K2" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12" t="n">
+      <c r="F10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>251</v>
+      </c>
+      <c r="G10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>248</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>217</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>212</v>
+      </c>
+      <c r="J10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>224</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <f aca="true">16+INT(RAND()*16)</f>
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
         <v>18</v>
       </c>
-      <c r="C3" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
-      </c>
-      <c r="D3" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
-      </c>
-      <c r="E3" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
-      </c>
-      <c r="G3" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
-      </c>
-      <c r="H3" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>250</v>
-      </c>
-      <c r="I3" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>222</v>
-      </c>
-      <c r="J3" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>224</v>
-      </c>
-      <c r="K3" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
-      </c>
-      <c r="D4" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>19</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>212</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>225</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>246</v>
-      </c>
-      <c r="J4" s="13" t="n">
+      <c r="E11" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>226</v>
+      </c>
+      <c r="F11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>235</v>
       </c>
-      <c r="K4" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
-      </c>
-      <c r="F5" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>212</v>
-      </c>
-      <c r="G5" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>243</v>
-      </c>
-      <c r="H5" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>241</v>
-      </c>
-      <c r="I5" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>217</v>
-      </c>
-      <c r="J5" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>227</v>
-      </c>
-      <c r="K5" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
-      </c>
-      <c r="D6" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>20</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>217</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>254</v>
-      </c>
-      <c r="H6" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>213</v>
-      </c>
-      <c r="I6" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>250</v>
-      </c>
-      <c r="J6" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>201</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
-      </c>
-      <c r="C7" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>25</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
-      </c>
-      <c r="F7" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>209</v>
-      </c>
-      <c r="G7" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>217</v>
-      </c>
-      <c r="H7" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>239</v>
-      </c>
-      <c r="I7" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>219</v>
-      </c>
-      <c r="J7" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>213</v>
-      </c>
-      <c r="K7" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
-      </c>
-      <c r="F8" s="13" t="n">
+      <c r="G11" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>231</v>
+      </c>
+      <c r="H11" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>237</v>
+      </c>
+      <c r="I11" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>211</v>
+      </c>
+      <c r="J11" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>228</v>
+      </c>
+      <c r="K11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
         <v>240</v>
-      </c>
-      <c r="G8" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>202</v>
-      </c>
-      <c r="H8" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>220</v>
-      </c>
-      <c r="I8" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>219</v>
-      </c>
-      <c r="J8" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>202</v>
-      </c>
-      <c r="K8" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>22</v>
-      </c>
-      <c r="C9" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
-      </c>
-      <c r="D9" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>20</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
-      </c>
-      <c r="F9" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>215</v>
-      </c>
-      <c r="G9" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>218</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>221</v>
-      </c>
-      <c r="I9" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>201</v>
-      </c>
-      <c r="J9" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>217</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>21</v>
-      </c>
-      <c r="C10" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>241</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>251</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>240</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>222</v>
-      </c>
-      <c r="I10" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>214</v>
-      </c>
-      <c r="J10" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>211</v>
-      </c>
-      <c r="K10" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>19</v>
-      </c>
-      <c r="C11" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>21</v>
-      </c>
-      <c r="D11" s="12" t="n">
-        <f aca="true">16+INT(RAND()*16)</f>
-        <v>25</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>205</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>213</v>
-      </c>
-      <c r="G11" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>205</v>
-      </c>
-      <c r="H11" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>204</v>
-      </c>
-      <c r="I11" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>246</v>
-      </c>
-      <c r="J11" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>230</v>
-      </c>
-      <c r="K11" s="13" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1619,7 +4000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1632,1050 +4013,1050 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.12890625" defaultRowHeight="22.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="14" width="4.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="15" width="4.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="13" style="14" width="4.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="15" width="4.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="14" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="17" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="18" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="13" style="17" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="18" width="4.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="17" width="4.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="C2" s="16" t="n">
+      <c r="C2" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="D2" s="16" t="n">
+      <c r="D2" s="19" t="n">
         <v>28</v>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="F2" s="16" t="n">
+      <c r="F2" s="19" t="n">
         <v>24</v>
       </c>
-      <c r="G2" s="16" t="n">
+      <c r="G2" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="H2" s="17" t="n">
+      <c r="H2" s="20" t="n">
         <v>201</v>
       </c>
-      <c r="I2" s="17" t="n">
+      <c r="I2" s="20" t="n">
         <v>236</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="20" t="n">
         <v>234</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="20" t="n">
         <v>247</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="19" t="n">
+      <c r="L2" s="21"/>
+      <c r="M2" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22" t="n">
         <f aca="false">C2-B2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="19" t="n">
+      <c r="O2" s="22" t="n">
         <f aca="false">D2-C2</f>
         <v>7</v>
       </c>
-      <c r="P2" s="19" t="n">
+      <c r="P2" s="22" t="n">
         <f aca="false">E2-D2</f>
         <v>-8</v>
       </c>
-      <c r="Q2" s="19" t="n">
+      <c r="Q2" s="22" t="n">
         <f aca="false">F2-E2</f>
         <v>4</v>
       </c>
-      <c r="R2" s="19" t="n">
+      <c r="R2" s="22" t="n">
         <f aca="false">G2-F2</f>
         <v>-7</v>
       </c>
-      <c r="S2" s="20" t="n">
+      <c r="S2" s="23" t="n">
         <f aca="false">H2-G2</f>
         <v>184</v>
       </c>
-      <c r="T2" s="19" t="n">
+      <c r="T2" s="22" t="n">
         <f aca="false">I2-H2</f>
         <v>35</v>
       </c>
-      <c r="U2" s="19" t="n">
+      <c r="U2" s="22" t="n">
         <f aca="false">J2-I2</f>
         <v>-2</v>
       </c>
-      <c r="V2" s="19" t="n">
+      <c r="V2" s="22" t="n">
         <f aca="false">K2-J2</f>
         <v>13</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="17" t="n">
+      <c r="W2" s="21"/>
+      <c r="X2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AE2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="21" t="n">
+      <c r="AE2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="19" t="n">
         <v>24</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="19" t="n">
         <v>26</v>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="H3" s="17" t="n">
+      <c r="H3" s="20" t="n">
         <v>235</v>
       </c>
-      <c r="I3" s="17" t="n">
+      <c r="I3" s="20" t="n">
         <v>253</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="20" t="n">
         <v>209</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="20" t="n">
         <v>225</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19" t="n">
+      <c r="L3" s="21"/>
+      <c r="M3" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22" t="n">
         <f aca="false">C3-B3</f>
         <v>8</v>
       </c>
-      <c r="O3" s="19" t="n">
+      <c r="O3" s="22" t="n">
         <f aca="false">D3-C3</f>
         <v>-4</v>
       </c>
-      <c r="P3" s="19" t="n">
+      <c r="P3" s="22" t="n">
         <f aca="false">E3-D3</f>
         <v>10</v>
       </c>
-      <c r="Q3" s="19" t="n">
+      <c r="Q3" s="22" t="n">
         <f aca="false">F3-E3</f>
         <v>-4</v>
       </c>
-      <c r="R3" s="19" t="n">
+      <c r="R3" s="22" t="n">
         <f aca="false">G3-F3</f>
         <v>-6</v>
       </c>
-      <c r="S3" s="20" t="n">
+      <c r="S3" s="23" t="n">
         <f aca="false">H3-G3</f>
         <v>215</v>
       </c>
-      <c r="T3" s="19" t="n">
+      <c r="T3" s="22" t="n">
         <f aca="false">I3-H3</f>
         <v>18</v>
       </c>
-      <c r="U3" s="19" t="n">
+      <c r="U3" s="22" t="n">
         <f aca="false">J3-I3</f>
         <v>-44</v>
       </c>
-      <c r="V3" s="19" t="n">
+      <c r="V3" s="22" t="n">
         <f aca="false">K3-J3</f>
         <v>16</v>
       </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="17" t="n">
+      <c r="W3" s="21"/>
+      <c r="X3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AE3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="21" t="n">
+      <c r="AE3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="F4" s="16" t="n">
+      <c r="F4" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="G4" s="17" t="n">
+      <c r="G4" s="20" t="n">
         <v>238</v>
       </c>
-      <c r="H4" s="17" t="n">
+      <c r="H4" s="20" t="n">
         <v>225</v>
       </c>
-      <c r="I4" s="17" t="n">
+      <c r="I4" s="20" t="n">
         <v>244</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="20" t="n">
         <v>249</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="20" t="n">
         <v>242</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19" t="n">
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22" t="n">
         <f aca="false">C4-B4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="19" t="n">
+      <c r="O4" s="22" t="n">
         <f aca="false">D4-C4</f>
         <v>4</v>
       </c>
-      <c r="P4" s="19" t="n">
+      <c r="P4" s="22" t="n">
         <f aca="false">E4-D4</f>
         <v>-3</v>
       </c>
-      <c r="Q4" s="19" t="n">
+      <c r="Q4" s="22" t="n">
         <f aca="false">F4-E4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="20" t="n">
+      <c r="R4" s="23" t="n">
         <f aca="false">G4-F4</f>
         <v>216</v>
       </c>
-      <c r="S4" s="19" t="n">
+      <c r="S4" s="22" t="n">
         <f aca="false">H4-G4</f>
         <v>-13</v>
       </c>
-      <c r="T4" s="19" t="n">
+      <c r="T4" s="22" t="n">
         <f aca="false">I4-H4</f>
         <v>19</v>
       </c>
-      <c r="U4" s="19" t="n">
+      <c r="U4" s="22" t="n">
         <f aca="false">J4-I4</f>
         <v>5</v>
       </c>
-      <c r="V4" s="19" t="n">
+      <c r="V4" s="22" t="n">
         <f aca="false">K4-J4</f>
         <v>-7</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="17" t="n">
+      <c r="W4" s="21"/>
+      <c r="X4" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AD4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="21" t="n">
+      <c r="AD4" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="19" t="n">
         <v>26</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="19" t="n">
         <v>27</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="20" t="n">
         <v>208</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="20" t="n">
         <v>254</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="20" t="n">
         <v>252</v>
       </c>
-      <c r="I5" s="17" t="n">
+      <c r="I5" s="20" t="n">
         <v>231</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="20" t="n">
         <v>215</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="20" t="n">
         <v>231</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19" t="n">
+      <c r="L5" s="21"/>
+      <c r="M5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22" t="n">
         <f aca="false">C5-B5</f>
         <v>1</v>
       </c>
-      <c r="O5" s="19" t="n">
+      <c r="O5" s="22" t="n">
         <f aca="false">D5-C5</f>
         <v>-2</v>
       </c>
-      <c r="P5" s="19" t="n">
+      <c r="P5" s="22" t="n">
         <f aca="false">E5-D5</f>
         <v>5</v>
       </c>
-      <c r="Q5" s="20" t="n">
+      <c r="Q5" s="23" t="n">
         <f aca="false">F5-E5</f>
         <v>178</v>
       </c>
-      <c r="R5" s="19" t="n">
+      <c r="R5" s="22" t="n">
         <f aca="false">G5-F5</f>
         <v>46</v>
       </c>
-      <c r="S5" s="19" t="n">
+      <c r="S5" s="22" t="n">
         <f aca="false">H5-G5</f>
         <v>-2</v>
       </c>
-      <c r="T5" s="19" t="n">
+      <c r="T5" s="22" t="n">
         <f aca="false">I5-H5</f>
         <v>-21</v>
       </c>
-      <c r="U5" s="19" t="n">
+      <c r="U5" s="22" t="n">
         <f aca="false">J5-I5</f>
         <v>-16</v>
       </c>
-      <c r="V5" s="19" t="n">
+      <c r="V5" s="22" t="n">
         <f aca="false">K5-J5</f>
         <v>16</v>
       </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="17" t="n">
+      <c r="W5" s="21"/>
+      <c r="X5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="21" t="n">
+      <c r="AC5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="19" t="n">
         <v>31</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="19" t="n">
         <v>29</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="20" t="n">
         <v>249</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="20" t="n">
         <v>215</v>
       </c>
-      <c r="H6" s="17" t="n">
+      <c r="H6" s="20" t="n">
         <v>244</v>
       </c>
-      <c r="I6" s="17" t="n">
+      <c r="I6" s="20" t="n">
         <v>239</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="20" t="n">
         <v>254</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="20" t="n">
         <v>208</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="19" t="n">
+      <c r="L6" s="21"/>
+      <c r="M6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22" t="n">
         <f aca="false">C6-B6</f>
         <v>-15</v>
       </c>
-      <c r="O6" s="19" t="n">
+      <c r="O6" s="22" t="n">
         <f aca="false">D6-C6</f>
         <v>5</v>
       </c>
-      <c r="P6" s="19" t="n">
+      <c r="P6" s="22" t="n">
         <f aca="false">E6-D6</f>
         <v>8</v>
       </c>
-      <c r="Q6" s="20" t="n">
+      <c r="Q6" s="23" t="n">
         <f aca="false">F6-E6</f>
         <v>220</v>
       </c>
-      <c r="R6" s="19" t="n">
+      <c r="R6" s="22" t="n">
         <f aca="false">G6-F6</f>
         <v>-34</v>
       </c>
-      <c r="S6" s="19" t="n">
+      <c r="S6" s="22" t="n">
         <f aca="false">H6-G6</f>
         <v>29</v>
       </c>
-      <c r="T6" s="19" t="n">
+      <c r="T6" s="22" t="n">
         <f aca="false">I6-H6</f>
         <v>-5</v>
       </c>
-      <c r="U6" s="19" t="n">
+      <c r="U6" s="22" t="n">
         <f aca="false">J6-I6</f>
         <v>15</v>
       </c>
-      <c r="V6" s="19" t="n">
+      <c r="V6" s="22" t="n">
         <f aca="false">K6-J6</f>
         <v>-46</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="17" t="n">
+      <c r="W6" s="21"/>
+      <c r="X6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="21" t="n">
+      <c r="AC6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="19" t="n">
         <v>29</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="G7" s="17" t="n">
+      <c r="G7" s="20" t="n">
         <v>216</v>
       </c>
-      <c r="H7" s="17" t="n">
+      <c r="H7" s="20" t="n">
         <v>207</v>
       </c>
-      <c r="I7" s="17" t="n">
+      <c r="I7" s="20" t="n">
         <v>253</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="20" t="n">
         <v>211</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="20" t="n">
         <v>218</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19" t="n">
+      <c r="L7" s="21"/>
+      <c r="M7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22" t="n">
         <f aca="false">C7-B7</f>
         <v>4</v>
       </c>
-      <c r="O7" s="19" t="n">
+      <c r="O7" s="22" t="n">
         <f aca="false">D7-C7</f>
         <v>4</v>
       </c>
-      <c r="P7" s="19" t="n">
+      <c r="P7" s="22" t="n">
         <f aca="false">E7-D7</f>
         <v>-13</v>
       </c>
-      <c r="Q7" s="20" t="n">
+      <c r="Q7" s="23" t="n">
         <f aca="false">F7-E7</f>
         <v>184</v>
       </c>
-      <c r="R7" s="19" t="n">
+      <c r="R7" s="22" t="n">
         <f aca="false">G7-F7</f>
         <v>16</v>
       </c>
-      <c r="S7" s="19" t="n">
+      <c r="S7" s="22" t="n">
         <f aca="false">H7-G7</f>
         <v>-9</v>
       </c>
-      <c r="T7" s="19" t="n">
+      <c r="T7" s="22" t="n">
         <f aca="false">I7-H7</f>
         <v>46</v>
       </c>
-      <c r="U7" s="19" t="n">
+      <c r="U7" s="22" t="n">
         <f aca="false">J7-I7</f>
         <v>-42</v>
       </c>
-      <c r="V7" s="19" t="n">
+      <c r="V7" s="22" t="n">
         <f aca="false">K7-J7</f>
         <v>7</v>
       </c>
-      <c r="W7" s="18"/>
-      <c r="X7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="17" t="n">
+      <c r="W7" s="21"/>
+      <c r="X7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="21" t="n">
+      <c r="AC7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="19" t="n">
         <v>24</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="19" t="n">
         <v>29</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="20" t="n">
         <v>242</v>
       </c>
-      <c r="G8" s="17" t="n">
+      <c r="G8" s="20" t="n">
         <v>213</v>
       </c>
-      <c r="H8" s="17" t="n">
+      <c r="H8" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="I8" s="17" t="n">
+      <c r="I8" s="20" t="n">
         <v>201</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="20" t="n">
         <v>215</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="19" t="n">
+      <c r="L8" s="21"/>
+      <c r="M8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22" t="n">
         <f aca="false">C8-B8</f>
         <v>-9</v>
       </c>
-      <c r="O8" s="19" t="n">
+      <c r="O8" s="22" t="n">
         <f aca="false">D8-C8</f>
         <v>3</v>
       </c>
-      <c r="P8" s="19" t="n">
+      <c r="P8" s="22" t="n">
         <f aca="false">E8-D8</f>
         <v>5</v>
       </c>
-      <c r="Q8" s="20" t="n">
+      <c r="Q8" s="23" t="n">
         <f aca="false">F8-E8</f>
         <v>213</v>
       </c>
-      <c r="R8" s="19" t="n">
+      <c r="R8" s="22" t="n">
         <f aca="false">G8-F8</f>
         <v>-29</v>
       </c>
-      <c r="S8" s="19" t="n">
+      <c r="S8" s="22" t="n">
         <f aca="false">H8-G8</f>
         <v>-13</v>
       </c>
-      <c r="T8" s="19" t="n">
+      <c r="T8" s="22" t="n">
         <f aca="false">I8-H8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="19" t="n">
+      <c r="U8" s="22" t="n">
         <f aca="false">J8-I8</f>
         <v>14</v>
       </c>
-      <c r="V8" s="19" t="n">
+      <c r="V8" s="22" t="n">
         <f aca="false">K8-J8</f>
         <v>25</v>
       </c>
-      <c r="W8" s="18"/>
-      <c r="X8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="17" t="n">
+      <c r="W8" s="21"/>
+      <c r="X8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="21" t="n">
+      <c r="AC8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="16" t="n">
+      <c r="B9" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="19" t="n">
         <v>24</v>
       </c>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="20" t="n">
         <v>248</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="H9" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="I9" s="20" t="n">
         <v>207</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="20" t="n">
         <v>249</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="20" t="n">
         <v>212</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19" t="n">
+      <c r="L9" s="21"/>
+      <c r="M9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22" t="n">
         <f aca="false">C9-B9</f>
         <v>-1</v>
       </c>
-      <c r="O9" s="19" t="n">
+      <c r="O9" s="22" t="n">
         <f aca="false">D9-C9</f>
         <v>1</v>
       </c>
-      <c r="P9" s="19" t="n">
+      <c r="P9" s="22" t="n">
         <f aca="false">E9-D9</f>
         <v>7</v>
       </c>
-      <c r="Q9" s="20" t="n">
+      <c r="Q9" s="23" t="n">
         <f aca="false">F9-E9</f>
         <v>176</v>
       </c>
-      <c r="R9" s="19" t="n">
+      <c r="R9" s="22" t="n">
         <f aca="false">G9-F9</f>
         <v>48</v>
       </c>
-      <c r="S9" s="19" t="n">
+      <c r="S9" s="22" t="n">
         <f aca="false">H9-G9</f>
         <v>-48</v>
       </c>
-      <c r="T9" s="19" t="n">
+      <c r="T9" s="22" t="n">
         <f aca="false">I9-H9</f>
         <v>7</v>
       </c>
-      <c r="U9" s="19" t="n">
+      <c r="U9" s="22" t="n">
         <f aca="false">J9-I9</f>
         <v>42</v>
       </c>
-      <c r="V9" s="19" t="n">
+      <c r="V9" s="22" t="n">
         <f aca="false">K9-J9</f>
         <v>-37</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="17" t="n">
+      <c r="W9" s="21"/>
+      <c r="X9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AC9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="21" t="n">
+      <c r="AC9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="19" t="n">
         <v>27</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="19" t="n">
         <v>24</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="20" t="n">
         <v>251</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="20" t="n">
         <v>251</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="20" t="n">
         <v>244</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="H10" s="20" t="n">
         <v>245</v>
       </c>
-      <c r="I10" s="17" t="n">
+      <c r="I10" s="20" t="n">
         <v>225</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="20" t="n">
         <v>208</v>
       </c>
-      <c r="K10" s="17" t="n">
+      <c r="K10" s="20" t="n">
         <v>226</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="19" t="n">
+      <c r="L10" s="21"/>
+      <c r="M10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22" t="n">
         <f aca="false">C10-B10</f>
         <v>-10</v>
       </c>
-      <c r="O10" s="19" t="n">
+      <c r="O10" s="22" t="n">
         <f aca="false">D10-C10</f>
         <v>7</v>
       </c>
-      <c r="P10" s="20" t="n">
+      <c r="P10" s="23" t="n">
         <f aca="false">E10-D10</f>
         <v>227</v>
       </c>
-      <c r="Q10" s="19" t="n">
+      <c r="Q10" s="22" t="n">
         <f aca="false">F10-E10</f>
         <v>0</v>
       </c>
-      <c r="R10" s="19" t="n">
+      <c r="R10" s="22" t="n">
         <f aca="false">G10-F10</f>
         <v>-7</v>
       </c>
-      <c r="S10" s="19" t="n">
+      <c r="S10" s="22" t="n">
         <f aca="false">H10-G10</f>
         <v>1</v>
       </c>
-      <c r="T10" s="19" t="n">
+      <c r="T10" s="22" t="n">
         <f aca="false">I10-H10</f>
         <v>-20</v>
       </c>
-      <c r="U10" s="19" t="n">
+      <c r="U10" s="22" t="n">
         <f aca="false">J10-I10</f>
         <v>-17</v>
       </c>
-      <c r="V10" s="19" t="n">
+      <c r="V10" s="22" t="n">
         <f aca="false">K10-J10</f>
         <v>18</v>
       </c>
-      <c r="W10" s="18"/>
-      <c r="X10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="17" t="n">
+      <c r="W10" s="21"/>
+      <c r="X10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AB10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="21" t="n">
+      <c r="AB10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="19" t="n">
         <v>31</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="20" t="n">
         <v>236</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="20" t="n">
         <v>233</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="20" t="n">
         <v>250</v>
       </c>
-      <c r="H11" s="17" t="n">
+      <c r="H11" s="20" t="n">
         <v>219</v>
       </c>
-      <c r="I11" s="17" t="n">
+      <c r="I11" s="20" t="n">
         <v>222</v>
       </c>
-      <c r="J11" s="17" t="n">
+      <c r="J11" s="20" t="n">
         <v>206</v>
       </c>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="20" t="n">
         <v>229</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="19" t="n">
+      <c r="L11" s="21"/>
+      <c r="M11" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22" t="n">
         <f aca="false">C11-B11</f>
         <v>1</v>
       </c>
-      <c r="O11" s="19" t="n">
+      <c r="O11" s="22" t="n">
         <f aca="false">D11-C11</f>
         <v>-14</v>
       </c>
-      <c r="P11" s="20" t="n">
+      <c r="P11" s="23" t="n">
         <f aca="false">E11-D11</f>
         <v>219</v>
       </c>
-      <c r="Q11" s="19" t="n">
+      <c r="Q11" s="22" t="n">
         <f aca="false">F11-E11</f>
         <v>-3</v>
       </c>
-      <c r="R11" s="19" t="n">
+      <c r="R11" s="22" t="n">
         <f aca="false">G11-F11</f>
         <v>17</v>
       </c>
-      <c r="S11" s="19" t="n">
+      <c r="S11" s="22" t="n">
         <f aca="false">H11-G11</f>
         <v>-31</v>
       </c>
-      <c r="T11" s="19" t="n">
+      <c r="T11" s="22" t="n">
         <f aca="false">I11-H11</f>
         <v>3</v>
       </c>
-      <c r="U11" s="19" t="n">
+      <c r="U11" s="22" t="n">
         <f aca="false">J11-I11</f>
         <v>-16</v>
       </c>
-      <c r="V11" s="19" t="n">
+      <c r="V11" s="22" t="n">
         <f aca="false">K11-J11</f>
         <v>23</v>
       </c>
-      <c r="W11" s="18"/>
-      <c r="X11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="17" t="n">
+      <c r="W11" s="21"/>
+      <c r="X11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="20" t="n">
         <f aca="false">255</f>
         <v>255</v>
       </c>
-      <c r="AB11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="21" t="n">
+      <c r="AB11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Images/Images.xlsx
+++ b/Images/Images.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cv.Mat" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Gaussian" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ランダム" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="44-エッジ" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="エッジ" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -65,7 +65,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -113,6 +113,11 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -122,6 +127,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13.95"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -357,7 +368,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,35 +376,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,6 +852,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1160,6 +1172,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1479,6 +1492,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1765,11 +1779,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="78197928"/>
-        <c:axId val="85605943"/>
+        <c:axId val="51713080"/>
+        <c:axId val="7875787"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78197928"/>
+        <c:axId val="51713080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +1811,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85605943"/>
+        <c:crossAx val="7875787"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1805,7 +1819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85605943"/>
+        <c:axId val="7875787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1834,7 +1848,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78197928"/>
+        <c:crossAx val="51713080"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -2041,9 +2055,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:colOff>84600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>684000</xdr:rowOff>
+      <xdr:rowOff>683640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2053,7 +2067,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2027520" y="501840"/>
-          <a:ext cx="3027960" cy="182160"/>
+          <a:ext cx="3027600" cy="181800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2094,7 +2108,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>91800</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>580320</xdr:rowOff>
     </xdr:to>
@@ -2106,7 +2120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2126160" y="167400"/>
-          <a:ext cx="2936160" cy="412920"/>
+          <a:ext cx="2935800" cy="412920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2173,9 +2187,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1097640</xdr:colOff>
+      <xdr:colOff>1098000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>427680</xdr:rowOff>
+      <xdr:rowOff>428040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
@@ -2190,8 +2204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="116280" y="2351160"/>
-          <a:ext cx="2179440" cy="217800"/>
+          <a:off x="117000" y="2351160"/>
+          <a:ext cx="2179080" cy="217440"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2228,13 +2242,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>645480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>299160</xdr:rowOff>
+      <xdr:rowOff>299520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1058040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>361080</xdr:rowOff>
+      <xdr:rowOff>361440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2243,7 +2257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-619200" y="2506320"/>
+          <a:off x="-619200" y="2506680"/>
           <a:ext cx="2942280" cy="412560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2317,7 +2331,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>50760</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>462960</xdr:rowOff>
     </xdr:to>
@@ -2329,7 +2343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3090600" y="2472120"/>
-          <a:ext cx="1211040" cy="373680"/>
+          <a:ext cx="1210680" cy="373680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2389,9 +2403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
+      <xdr:colOff>221760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2400,7 +2414,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4222800" y="984960"/>
-        <a:ext cx="6869160" cy="3213000"/>
+        <a:ext cx="6868800" cy="3212640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2424,9 +2438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2436,7 +2450,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257760" y="1191240"/>
-          <a:ext cx="2536560" cy="270000"/>
+          <a:ext cx="2536200" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,6 +2480,73 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>280440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>230760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="シェイプ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3927240" y="904320"/>
+          <a:ext cx="3958920" cy="529560"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62018"/>
+            <a:gd name="adj2" fmla="val 31861"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Meiryo UI"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>本文では未使用（エッジ作成のためのもの）</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Meiryo UI"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2480,19 +2561,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="293040" y="1381680"/>
-          <a:ext cx="2895480" cy="355680"/>
+          <a:ext cx="2895120" cy="355320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2646,7 +2727,7 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X11" activeCellId="0" sqref="X11"/>
     </sheetView>
   </sheetViews>
@@ -3558,7 +3639,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
+      <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3570,85 +3651,85 @@
     <row r="2" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H2" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I2" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J2" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="K2" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
+        <v>215</v>
+      </c>
+      <c r="I3" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>244</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>234</v>
+      </c>
+      <c r="K3" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
         <v>238</v>
-      </c>
-      <c r="I3" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>206</v>
-      </c>
-      <c r="J3" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>250</v>
-      </c>
-      <c r="K3" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3658,179 +3739,179 @@
       </c>
       <c r="C4" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D4" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E4" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="H4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="K4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F5" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G5" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="H5" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="I5" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J5" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="K5" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="G6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="I6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="J6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E7" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="J7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="K7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C8" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
@@ -3838,87 +3919,87 @@
       </c>
       <c r="F8" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G8" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H8" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="I8" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="J8" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K8" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="I9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="K9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C10" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F10" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
@@ -3926,65 +4007,65 @@
       </c>
       <c r="G10" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
+        <v>226</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>251</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>210</v>
+      </c>
+      <c r="J10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>226</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
         <v>248</v>
-      </c>
-      <c r="H10" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>217</v>
-      </c>
-      <c r="I10" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>212</v>
-      </c>
-      <c r="J10" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>224</v>
-      </c>
-      <c r="K10" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>227</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="I11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="K11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4007,8 +4088,8 @@
   </sheetPr>
   <dimension ref="B2:AG11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF14" activeCellId="0" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.12890625" defaultRowHeight="22.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Images/Images.xlsx
+++ b/Images/Images.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cv.Mat" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">(0, 0)</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">(rows-1, cols-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σ</t>
   </si>
 </sst>
 </file>
@@ -113,14 +116,15 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
+      <sz val="14"/>
+      <name val="メイリオ"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <sz val="13.95"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -130,10 +134,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13.95"/>
+      <sz val="14"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="1"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -480,7 +484,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1779,11 +1783,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="51713080"/>
-        <c:axId val="7875787"/>
+        <c:axId val="20774451"/>
+        <c:axId val="45720168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51713080"/>
+        <c:axId val="20774451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,21 +1809,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:latin typeface="Meiryo UI"/>
+                <a:ea typeface="メイリオ"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7875787"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="45720168"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7875787"/>
+        <c:axId val="45720168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1842,13 +1847,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:latin typeface="Meiryo UI"/>
+                <a:ea typeface="メイリオ"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51713080"/>
+        <c:crossAx val="20774451"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -1862,27 +1868,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -2055,9 +2040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
+      <xdr:colOff>84240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>683640</xdr:rowOff>
+      <xdr:rowOff>683280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2067,7 +2052,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2027520" y="501840"/>
-          <a:ext cx="3027600" cy="181800"/>
+          <a:ext cx="3027240" cy="181440"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2187,15 +2172,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1098000</xdr:colOff>
+      <xdr:colOff>1098720</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>428040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1315440</xdr:colOff>
+      <xdr:colOff>1315800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>446760</xdr:rowOff>
+      <xdr:rowOff>446400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2204,8 +2189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="117000" y="2351160"/>
-          <a:ext cx="2179080" cy="217440"/>
+          <a:off x="117360" y="2351520"/>
+          <a:ext cx="2178720" cy="217080"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2242,13 +2227,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>645480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>299520</xdr:rowOff>
+      <xdr:rowOff>299880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1058040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>361440</xdr:rowOff>
+      <xdr:rowOff>361800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2257,7 +2242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-619200" y="2506680"/>
+          <a:off x="-619200" y="2507040"/>
           <a:ext cx="2942280" cy="412560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2397,15 +2382,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>268200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:colOff>277920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>221760</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>251640</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2413,8 +2398,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4222800" y="984960"/>
-        <a:ext cx="6868800" cy="3212640"/>
+        <a:off x="4232520" y="842040"/>
+        <a:ext cx="10032120" cy="4691880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2422,6 +2407,242 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>79560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="シェイプ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9121680" y="1486440"/>
+          <a:ext cx="570240" cy="352440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Meiryo UI"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>σ=0.5</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Meiryo UI"/>
+            <a:ea typeface="游ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="シェイプ 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9091800" y="3000240"/>
+          <a:ext cx="570240" cy="352440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Meiryo UI"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>σ=1.0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Meiryo UI"/>
+            <a:ea typeface="游ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="シェイプ 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9091800" y="3524400"/>
+          <a:ext cx="570240" cy="352440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Meiryo UI"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>σ=1.5</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Meiryo UI"/>
+            <a:ea typeface="游ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="シェイプ 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9091800" y="4171680"/>
+          <a:ext cx="570240" cy="352440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Meiryo UI"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>σ=2.0</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Meiryo UI"/>
+            <a:ea typeface="游ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2438,19 +2659,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257760" y="1191240"/>
-          <a:ext cx="2536200" cy="269640"/>
+          <a:ext cx="2535840" cy="269280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2489,19 +2710,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600840</xdr:colOff>
+      <xdr:colOff>600480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>230760</xdr:rowOff>
+      <xdr:rowOff>230400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="シェイプ 1"/>
+        <xdr:cNvPr id="14" name="シェイプ 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3927240" y="904320"/>
-          <a:ext cx="3958920" cy="529560"/>
+          <a:ext cx="3958560" cy="529200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2530,7 +2751,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1400" spc="-1" strike="noStrike">
               <a:latin typeface="Meiryo UI"/>
@@ -2539,8 +2764,7 @@
             <a:t>本文では未使用（エッジ作成のためのもの）</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Meiryo UI"/>
-            <a:ea typeface="メイリオ"/>
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2561,19 +2785,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="293040" y="1381680"/>
-          <a:ext cx="2895120" cy="355320"/>
+          <a:ext cx="2894760" cy="354960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2727,8 +2951,8 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X11" activeCellId="0" sqref="X11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2745,6 +2969,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="13" t="n">
         <v>0.5</v>
       </c>
@@ -3651,19 +3878,19 @@
     <row r="2" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
@@ -3671,29 +3898,29 @@
       </c>
       <c r="G2" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I2" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="J2" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K2" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
@@ -3701,91 +3928,91 @@
       </c>
       <c r="D3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H3" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I3" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
+        <v>214</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
         <v>244</v>
       </c>
-      <c r="J3" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>234</v>
-      </c>
       <c r="K3" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F4" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="J4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="K4" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
@@ -3793,27 +4020,27 @@
       </c>
       <c r="F5" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G5" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
+        <v>235</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>206</v>
+      </c>
+      <c r="I5" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>226</v>
+      </c>
+      <c r="J5" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
         <v>211</v>
       </c>
-      <c r="H5" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>202</v>
-      </c>
-      <c r="I5" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>237</v>
-      </c>
-      <c r="J5" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>246</v>
-      </c>
       <c r="K5" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3823,87 +4050,87 @@
       </c>
       <c r="C6" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="G6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="I6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="J6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="K6" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="G7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="J7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="K7" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
@@ -3911,161 +4138,161 @@
       </c>
       <c r="D8" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
+        <v>234</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>227</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>254</v>
+      </c>
+      <c r="I8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>240</v>
+      </c>
+      <c r="J8" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
         <v>215</v>
       </c>
-      <c r="G8" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>212</v>
-      </c>
-      <c r="H8" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>208</v>
-      </c>
-      <c r="I8" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>219</v>
-      </c>
-      <c r="J8" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>204</v>
-      </c>
       <c r="K8" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E9" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="G9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="H9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="I9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K9" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="F10" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G10" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
+        <v>242</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
+        <v>250</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <f aca="true">200+INT(RAND()*55)</f>
         <v>226</v>
       </c>
-      <c r="H10" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>251</v>
-      </c>
-      <c r="I10" s="16" t="n">
-        <f aca="true">200+INT(RAND()*55)</f>
-        <v>210</v>
-      </c>
       <c r="J10" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="K10" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D11" s="15" t="n">
         <f aca="true">16+INT(RAND()*16)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="F11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="H11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="I11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="J11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K11" s="16" t="n">
         <f aca="true">200+INT(RAND()*55)</f>
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4088,7 +4315,7 @@
   </sheetPr>
   <dimension ref="B2:AG11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF14" activeCellId="0" sqref="AF14"/>
     </sheetView>
   </sheetViews>
